--- a/main_report.xlsx
+++ b/main_report.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -11,24 +11,37 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>ремонт</t>
+    <t>объект1</t>
   </si>
   <si>
-    <t>3 рубля</t>
+    <t>объект2</t>
+  </si>
+  <si>
+    <t>объект3</t>
+  </si>
+  <si>
+    <t>объект4</t>
+  </si>
+  <si>
+    <t>объект5</t>
+  </si>
+  <si>
+    <t>объект6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,13 +49,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -360,20 +388,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A4:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <f>SUM(C4:C15)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
